--- a/InternetSpeed.xlsx
+++ b/InternetSpeed.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A11" sqref="A11:XFD11"/>
@@ -597,6 +597,19 @@
         <v>49.40908086929486</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>25/09/2021 16:37</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>12.07727187971</v>
+      </c>
+      <c r="C13" t="n">
+        <v>34.64945973635313</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
